--- a/benchmarks/parallel-multi-intersect/bushy-base.xlsx
+++ b/benchmarks/parallel-multi-intersect/bushy-base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="87">
-  <si>
-    <t>PLI build took: 44.599161s</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="87">
   <si>
     <t>Raw key error is 7503061.</t>
   </si>
@@ -160,133 +157,136 @@
     <t>key error</t>
   </si>
   <si>
-    <t>Raw key error is 7503463 . For column combination ColumnCombinationBitset 11.</t>
+    <t>PLI build took: 49.214595s</t>
   </si>
   <si>
-    <t>Raw key error is 7503557 . For column combination ColumnCombinationBitset 00011.</t>
+    <t>Raw key error is 7503463. For column combination ColumnCombinationBitset 11.</t>
   </si>
   <si>
-    <t>Raw key error is 7503531 . For column combination ColumnCombinationBitset 0000011.</t>
+    <t>Raw key error is 7503557. For column combination ColumnCombinationBitset 00011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503562 . For column combination ColumnCombinationBitset 000000011.</t>
+    <t>Raw key error is 7503531. For column combination ColumnCombinationBitset 0000011.</t>
   </si>
   <si>
-    <t>Raw key error is 3690498 . For column combination ColumnCombinationBitset 00000000011.</t>
+    <t>Raw key error is 7503562. For column combination ColumnCombinationBitset 000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7154176 . For column combination ColumnCombinationBitset 0000000000011.</t>
+    <t>Raw key error is 3690498. For column combination ColumnCombinationBitset 00000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7466951 . For column combination ColumnCombinationBitset 00000000000000011.</t>
+    <t>Raw key error is 7154176. For column combination ColumnCombinationBitset 0000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7399689 . For column combination ColumnCombinationBitset 0000000000000000011.</t>
+    <t>Raw key error is 7466951. For column combination ColumnCombinationBitset 00000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503265 . For column combination ColumnCombinationBitset 000000000000000000011.</t>
+    <t>Raw key error is 7399689. For column combination ColumnCombinationBitset 0000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7477976 . For column combination ColumnCombinationBitset 00000000000000000000011.</t>
+    <t>Raw key error is 7503265. For column combination ColumnCombinationBitset 000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7502767 . For column combination ColumnCombinationBitset 0000000000000000000000011.</t>
+    <t>Raw key error is 7477976. For column combination ColumnCombinationBitset 00000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7502572 . For column combination ColumnCombinationBitset 0000000000000000000000000101.</t>
+    <t>Raw key error is 7502767. For column combination ColumnCombinationBitset 0000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7484127 . For column combination ColumnCombinationBitset 0000000000000000000000000000011.</t>
+    <t>Raw key error is 7502572. For column combination ColumnCombinationBitset 0000000000000000000000000101.</t>
   </si>
   <si>
-    <t>Raw key error is 7496995 . For column combination ColumnCombinationBitset 000000000000000000000000000000011.</t>
+    <t>Raw key error is 7484127. For column combination ColumnCombinationBitset 0000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7453627 . For column combination ColumnCombinationBitset 00000000000000000000000000000000011.</t>
+    <t>Raw key error is 7496995. For column combination ColumnCombinationBitset 000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7391328 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7453627. For column combination ColumnCombinationBitset 00000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 5503230 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000000101.</t>
+    <t>Raw key error is 7391328. For column combination ColumnCombinationBitset 0000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503556 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 5503230. For column combination ColumnCombinationBitset 0000000000000000000000000000000000000101.</t>
   </si>
   <si>
-    <t>Raw key error is 7503560 . For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503556. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503559 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503560. For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503560 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503559. For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7498472 . For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503560. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 4235134 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7498472. For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7499367 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 4235134. For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7502754 . For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7499367. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503172 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7502754. For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503427 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503172. For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503480 . For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503427. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503463 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503480. For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503309 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503463. For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503072 . For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503309. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503267 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503072. For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503244 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503267. For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503252 . For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503244. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503430 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503252. For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503530 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503430. For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503521 . For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503530. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503515 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503521. For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503532 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503515. For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503498 . For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503532. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503506 . For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503498. For column combination ColumnCombinationBitset 00000000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7503560 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+    <t>Raw key error is 7503506. For column combination ColumnCombinationBitset 0000000000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
   </si>
   <si>
-    <t>Raw key error is 7496337 . For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101.</t>
+    <t>Raw key error is 7503560. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000000000000000000000011.</t>
+  </si>
+  <si>
+    <t>Raw key error is 7496337. For column combination ColumnCombinationBitset 000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101.</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$87</c:f>
+              <c:f>Sheet1!$B$3:$B$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -2043,7 +2043,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6AA5-442C-870E-F5869C043EDE}"/>
+              <c16:uniqueId val="{00000004-159A-4C6E-8208-7B6640502F49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2346,7 +2346,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$90:$B$175</c:f>
+              <c:f>Sheet1!$B$91:$B$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -2357,43 +2357,43 @@
                   <c:v>7503463</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7503562</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7503531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7503562</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7154176</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3690498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7399689</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>7466951</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3690498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7399689</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7503265</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>7502767</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7477976</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>7502767</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>7484127</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7502572</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>7484127</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>7453627</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7496995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7453627</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7391328</c:v>
@@ -2405,10 +2405,10 @@
                   <c:v>7503556</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>7503560</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>7503559</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7503560</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7503560</c:v>
@@ -2459,25 +2459,25 @@
                   <c:v>7503521</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4235134</c:v>
+                  <c:v>7503515</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7503515</c:v>
+                  <c:v>7503532</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7503532</c:v>
+                  <c:v>7503498</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7503498</c:v>
+                  <c:v>7503506</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>7503560</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7503506</c:v>
+                  <c:v>7496337</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7496337</c:v>
+                  <c:v>4235134</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>7503061</c:v>
@@ -2489,16 +2489,16 @@
                   <c:v>556641</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>4557854</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>7433609</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>4557854</c:v>
-                </c:pt>
                 <c:pt idx="48">
+                  <c:v>7475997</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>7502572</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7475997</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>7391184</c:v>
@@ -2540,13 +2540,13 @@
                   <c:v>7503471</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>7493009</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7501143</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>3455300</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7493009</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7501143</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>15382</c:v>
@@ -2585,19 +2585,19 @@
                   <c:v>7500468</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>7502703</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>363308</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>7502703</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1426</c:v>
-                </c:pt>
                 <c:pt idx="81">
+                  <c:v>7499210</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>112690</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7499210</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>18704</c:v>
@@ -2614,7 +2614,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-6AA5-442C-870E-F5869C043EDE}"/>
+              <c16:uniqueId val="{00000006-159A-4C6E-8208-7B6640502F49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2917,7 +2917,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$178:$B$263</c:f>
+              <c:f>Sheet1!$B$267:$B$352</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -2934,97 +2934,97 @@
                   <c:v>7503531</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7503265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7502767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7477976</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>7399689</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>7502572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7484127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7453627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7496995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7503556</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7503559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7503560</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7154176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7391328</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7503560</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>7466951</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7154176</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7503265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7477976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7502767</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7484127</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7502572</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7496995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7453627</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7391328</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
+                  <c:v>5503230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7502754</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7503427</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7503172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7503480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7499367</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7503463</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7503309</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7503072</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7503267</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7498472</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7503244</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7503252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7503430</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7503530</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>3690498</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7503556</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5503230</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7503560</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7503559</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7503560</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7502754</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7499367</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7503172</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7498472</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7503427</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7503480</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7503463</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7503309</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7503072</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7503267</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7503244</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7503252</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7503430</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7503530</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7503521</c:v>
@@ -3048,118 +3048,118 @@
                   <c:v>7503061</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>7503531</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>7496337</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>7503531</c:v>
-                </c:pt>
                 <c:pt idx="44">
+                  <c:v>7475997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7503551</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7502572</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>7433609</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>7502572</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7475997</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
+                  <c:v>7503410</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7502600</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>7391184</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
+                  <c:v>7503289</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7502877</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7503418</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7502976</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7503507</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>5338678</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>4557854</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7503551</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7502600</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7503410</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>556641</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7503289</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
+                  <c:v>7503471</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7503486</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>7490930</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>7502877</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7502976</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7503418</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7503507</c:v>
-                </c:pt>
                 <c:pt idx="60">
-                  <c:v>7503486</c:v>
+                  <c:v>7501143</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7503471</c:v>
+                  <c:v>7502360</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4235134</c:v>
+                  <c:v>7502673</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>7502900</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>7369736</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7501143</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>7493009</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7502360</c:v>
+                  <c:v>7503444</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>4557854</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7251956</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7500468</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7502703</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7492887</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4969123</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>556641</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7499210</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6928833</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>15382</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>4969123</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7251956</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7502673</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7502900</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7503444</c:v>
-                </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="77">
                   <c:v>2690</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>7492887</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7502703</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7500468</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6928833</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>7499210</c:v>
+                  <c:v>1426</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1426</c:v>
+                  <c:v>4235134</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3455300</c:v>
@@ -3185,7 +3185,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-6AA5-442C-870E-F5869C043EDE}"/>
+              <c16:uniqueId val="{00000008-159A-4C6E-8208-7B6640502F49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3488,7 +3488,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$266:$B$351</c:f>
+              <c:f>Sheet1!$B$267:$B$352</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -3505,13 +3505,13 @@
                   <c:v>7503531</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7503265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7502767</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7477976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7503265</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7502767</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7399689</c:v>
@@ -3523,19 +3523,19 @@
                   <c:v>7484127</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>7453627</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>7496995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7453627</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7503556</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>7503559</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7503560</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7466951</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7154176</c:v>
@@ -3544,58 +3544,58 @@
                   <c:v>7391328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7503559</c:v>
+                  <c:v>7503560</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>7466951</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>5503230</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7503560</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7502754</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>7503427</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>7503172</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7503427</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7503480</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>7499367</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>7503463</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>7503309</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>7499367</c:v>
-                </c:pt>
                 <c:pt idx="27">
+                  <c:v>7503072</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>7503267</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>7503072</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>7503430</c:v>
+                  <c:v>7498472</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7503244</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>7503252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7503430</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7503530</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>3690498</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7503252</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7498472</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7503530</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7503521</c:v>
@@ -3619,31 +3619,31 @@
                   <c:v>7503061</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>7503531</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>7496337</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>7503531</c:v>
-                </c:pt>
                 <c:pt idx="44">
+                  <c:v>7475997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7503551</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>7502572</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>7475997</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>7433609</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
+                  <c:v>7503410</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7502600</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>7391184</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7503551</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7503410</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7502600</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>7503289</c:v>
@@ -3652,10 +3652,10 @@
                   <c:v>7502877</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>7503418</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>7502976</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7503418</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>7503507</c:v>
@@ -3664,10 +3664,10 @@
                   <c:v>5338678</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>7503471</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>7503486</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7503471</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>7490930</c:v>
@@ -3676,40 +3676,40 @@
                   <c:v>7501143</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>7502360</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7502673</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7502900</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>7369736</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>7502360</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>7493009</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
+                  <c:v>7503444</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>4557854</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>7503444</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7502900</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7502673</c:v>
-                </c:pt>
                 <c:pt idx="68">
+                  <c:v>7251956</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7500468</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>7502703</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>7251956</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
+                  <c:v>7492887</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>4969123</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7500468</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7492887</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>556641</c:v>
@@ -3756,7 +3756,309 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-6AA5-442C-870E-F5869C043EDE}"/>
+              <c16:uniqueId val="{0000000A-159A-4C6E-8208-7B6640502F49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$355:$B$440</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>7503562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7503557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7502767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7477976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7503265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7496995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7484127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7503463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7503531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7502572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7453627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7503560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7503560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7503559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7503556</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7391328</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7502754</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7503172</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7503480</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7503463</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7503309</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7399689</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7503072</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7503427</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5503230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7503244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7503430</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7503530</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7503521</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7503515</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7499367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7503252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7503532</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7503267</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7503498</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7503506</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7466951</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7503560</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7503061</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7433609</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7154176</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7498472</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7475997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7496337</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7503531</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7503551</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7502572</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7503289</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7503410</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7503507</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7502600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7503418</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7503486</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7503471</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7502976</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7391184</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7503444</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7502877</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7501143</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5338678</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7502360</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7502900</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3690498</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7493009</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7502703</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7369736</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7502673</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7490930</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7251956</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4969123</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7492887</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7500468</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7499210</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4557854</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6928833</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>556641</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15382</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4235134</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3455300</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>363308</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>112690</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18704</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-159A-4C6E-8208-7B6640502F49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3830,13 +4132,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>intersect</a:t>
+                  <a:t>Title</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> number</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3912,7 +4209,6 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="5"/>
         <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -3958,7 +4254,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>key error</a:t>
+                  <a:t>Title</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4144,7 +4440,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>49.692427786000003</c:v>
+                  <c:v>56.765168883999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,7 +4474,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28.140539781000001</c:v>
+                  <c:v>30.683911547000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4212,7 +4508,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20.298804529000002</c:v>
+                  <c:v>26.200123294000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4246,7 +4542,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15.191375235000001</c:v>
+                  <c:v>17.269520518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4254,6 +4550,40 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-518A-4C35-BF98-BF35DBAD25D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$441</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.035961767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53B6-4E06-91D2-5D2F04D9C91A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5519,7 +5849,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5530,7 +5860,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5541,7 +5871,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9293311" cy="6075405"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6106,10 +6436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C353"/>
+  <dimension ref="A1:C441"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6119,19 +6449,19 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
+      <c r="A2">
+        <v>4.8223307E-2</v>
+      </c>
+      <c r="B2" t="e">
         <f>_xlfn.NUMBERVALUE(MID(A2,FIND("is",$A2)+3,FIND(".",A2)-FIND("is",$A2)-3))</f>
-        <v>7503463</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6139,11 +6469,11 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">_xlfn.NUMBERVALUE(MID(A3,FIND("is",$A3)+3,FIND(".",A3)-FIND("is",$A3)-3))</f>
-        <v>7503557</v>
+        <v>7503463</v>
       </c>
       <c r="C3">
         <f>C2+1</f>
@@ -6152,11 +6482,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>7503531</v>
+        <v>7503557</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
@@ -6165,11 +6495,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>7503562</v>
+        <v>7503531</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -6178,11 +6508,11 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>3690498</v>
+        <v>7503562</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -6191,11 +6521,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>7154176</v>
+        <v>3690498</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -6204,11 +6534,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>7466951</v>
+        <v>7154176</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -6217,11 +6547,11 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>7399689</v>
+        <v>7466951</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -6230,11 +6560,11 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>7503265</v>
+        <v>7399689</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -6243,11 +6573,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>7477976</v>
+        <v>7503265</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -6256,11 +6586,11 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>7502767</v>
+        <v>7477976</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -6269,11 +6599,11 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>7502572</v>
+        <v>7502767</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -6282,11 +6612,11 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>7484127</v>
+        <v>7502572</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -6295,11 +6625,11 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>7496995</v>
+        <v>7484127</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -6308,11 +6638,11 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>7453627</v>
+        <v>7496995</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -6321,11 +6651,11 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>7391328</v>
+        <v>7453627</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -6334,11 +6664,11 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>5503230</v>
+        <v>7391328</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -6347,11 +6677,11 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>7503556</v>
+        <v>5503230</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -6360,11 +6690,11 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>7503560</v>
+        <v>7503556</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -6373,11 +6703,11 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>7503559</v>
+        <v>7503560</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -6386,11 +6716,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>7503560</v>
+        <v>7503559</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -6399,11 +6729,11 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>7498472</v>
+        <v>7503560</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -6412,11 +6742,11 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>4235134</v>
+        <v>7498472</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -6425,11 +6755,11 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>7499367</v>
+        <v>4235134</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -6438,11 +6768,11 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>7502754</v>
+        <v>7499367</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -6451,11 +6781,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>7503172</v>
+        <v>7502754</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -6464,11 +6794,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>7503427</v>
+        <v>7503172</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -6477,11 +6807,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>7503480</v>
+        <v>7503427</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -6490,11 +6820,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>7503463</v>
+        <v>7503480</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -6503,11 +6833,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>7503309</v>
+        <v>7503463</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -6516,11 +6846,11 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>7503072</v>
+        <v>7503309</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -6529,11 +6859,11 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>7503267</v>
+        <v>7503072</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -6542,11 +6872,11 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>7503244</v>
+        <v>7503267</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -6555,11 +6885,11 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>7503252</v>
+        <v>7503244</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -6568,11 +6898,11 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>7503430</v>
+        <v>7503252</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -6581,11 +6911,11 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>7503530</v>
+        <v>7503430</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -6594,11 +6924,11 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>7503521</v>
+        <v>7503530</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -6607,11 +6937,11 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>7503515</v>
+        <v>7503521</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -6620,11 +6950,11 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>7503532</v>
+        <v>7503515</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -6633,11 +6963,11 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>7503498</v>
+        <v>7503532</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -6646,11 +6976,11 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>7503506</v>
+        <v>7503498</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -6659,11 +6989,11 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>7503560</v>
+        <v>7503506</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -6672,11 +7002,11 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>7496337</v>
+        <v>7503560</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -6685,11 +7015,11 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>7503061</v>
+        <v>7496337</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -6698,11 +7028,11 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>7503531</v>
+        <v>7503061</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -6711,11 +7041,11 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>556641</v>
+        <v>7503531</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -6724,11 +7054,11 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>4557854</v>
+        <v>556641</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -6737,11 +7067,11 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>7433609</v>
+        <v>4557854</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -6750,11 +7080,11 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>7502572</v>
+        <v>7433609</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -6763,11 +7093,11 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>7475997</v>
+        <v>7502572</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -6776,11 +7106,11 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>7391184</v>
+        <v>7475997</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -6789,11 +7119,11 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>5338678</v>
+        <v>7391184</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -6802,11 +7132,11 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>7503551</v>
+        <v>5338678</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -6815,11 +7145,11 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>7490930</v>
+        <v>7503551</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -6828,11 +7158,11 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>3455300</v>
+        <v>7490930</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -6841,11 +7171,11 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>7502600</v>
+        <v>3455300</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -6854,11 +7184,11 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>7503410</v>
+        <v>7502600</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -6867,11 +7197,11 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>7503289</v>
+        <v>7503410</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -6880,11 +7210,11 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>7502877</v>
+        <v>7503289</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -6893,11 +7223,11 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>7502976</v>
+        <v>7502877</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -6906,11 +7236,11 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>7503418</v>
+        <v>7502976</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -6919,11 +7249,11 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>7503507</v>
+        <v>7503418</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -6932,11 +7262,11 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>7503486</v>
+        <v>7503507</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -6945,11 +7275,11 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>7503471</v>
+        <v>7503486</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -6958,11 +7288,11 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>7493009</v>
+        <v>7503471</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -6971,11 +7301,11 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="2">_xlfn.NUMBERVALUE(MID(A67,FIND("is",$A67)+3,FIND(".",A67)-FIND("is",$A67)-3))</f>
-        <v>7501143</v>
+        <v>7493009</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -6984,11 +7314,11 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B68">
         <f t="shared" si="2"/>
-        <v>15382</v>
+        <v>7501143</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C131" si="3">C67+1</f>
@@ -6997,11 +7327,11 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
-        <v>7251956</v>
+        <v>15382</v>
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
@@ -7010,11 +7340,11 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
-        <v>7369736</v>
+        <v>7251956</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
@@ -7023,11 +7353,11 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
-        <v>4969123</v>
+        <v>7369736</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
@@ -7036,11 +7366,11 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
-        <v>363308</v>
+        <v>4969123</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
@@ -7049,11 +7379,11 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
-        <v>7502360</v>
+        <v>363308</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
@@ -7062,11 +7392,11 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
-        <v>7502673</v>
+        <v>7502360</v>
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
@@ -7075,11 +7405,11 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
-        <v>7502900</v>
+        <v>7502673</v>
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
@@ -7088,11 +7418,11 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B76">
         <f t="shared" si="2"/>
-        <v>7503444</v>
+        <v>7502900</v>
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
@@ -7101,11 +7431,11 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B77">
         <f t="shared" si="2"/>
-        <v>7492887</v>
+        <v>7503444</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
@@ -7114,11 +7444,11 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B78">
         <f t="shared" si="2"/>
-        <v>2690</v>
+        <v>7492887</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
@@ -7127,11 +7457,11 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
-        <v>6928833</v>
+        <v>2690</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
@@ -7140,11 +7470,11 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
-        <v>112690</v>
+        <v>6928833</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
@@ -7153,11 +7483,11 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>7500468</v>
+        <v>112690</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
@@ -7166,11 +7496,11 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
-        <v>7502703</v>
+        <v>7500468</v>
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
@@ -7179,11 +7509,11 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>1426</v>
+        <v>7502703</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
@@ -7192,11 +7522,11 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>18704</v>
+        <v>1426</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
@@ -7205,11 +7535,11 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
-        <v>7499210</v>
+        <v>18704</v>
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
@@ -7218,11 +7548,11 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>7499210</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
@@ -7231,7 +7561,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
@@ -7243,12 +7573,12 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>49.692100986</v>
-      </c>
-      <c r="B88" t="e">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>70</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
@@ -7257,7 +7587,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>49.692427786000003</v>
+        <v>56.765168883999998</v>
       </c>
       <c r="B89" t="e">
         <f t="shared" si="2"/>
@@ -7269,12 +7599,12 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90">
+      <c r="A90">
+        <v>2.2647330000000001E-3</v>
+      </c>
+      <c r="B90" t="e">
         <f t="shared" si="2"/>
-        <v>7503557</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
@@ -7283,11 +7613,11 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>7503463</v>
+        <v>7503557</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
@@ -7296,11 +7626,11 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>7503531</v>
+        <v>7503463</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
@@ -7322,11 +7652,11 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>7154176</v>
+        <v>7503531</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
@@ -7335,11 +7665,11 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>7466951</v>
+        <v>7154176</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
@@ -7374,11 +7704,11 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>7503265</v>
+        <v>7466951</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
@@ -7387,11 +7717,11 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>7477976</v>
+        <v>7503265</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
@@ -7413,11 +7743,11 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>7502572</v>
+        <v>7477976</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
@@ -7439,11 +7769,11 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>7496995</v>
+        <v>7502572</v>
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
@@ -7465,11 +7795,11 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>7391328</v>
+        <v>7496995</v>
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
@@ -7478,11 +7808,11 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>5503230</v>
+        <v>7391328</v>
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
@@ -7491,11 +7821,11 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>7503556</v>
+        <v>5503230</v>
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
@@ -7504,11 +7834,11 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>7503559</v>
+        <v>7503556</v>
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
@@ -7530,11 +7860,11 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>7503560</v>
+        <v>7503559</v>
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
@@ -7543,11 +7873,11 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>7498472</v>
+        <v>7503560</v>
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
@@ -7556,11 +7886,11 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>7499367</v>
+        <v>7498472</v>
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
@@ -7569,11 +7899,11 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>7502754</v>
+        <v>7499367</v>
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
@@ -7582,11 +7912,11 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>7503172</v>
+        <v>7502754</v>
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
@@ -7595,11 +7925,11 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>7503427</v>
+        <v>7503172</v>
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
@@ -7608,11 +7938,11 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>7503480</v>
+        <v>7503427</v>
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
@@ -7621,11 +7951,11 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>7503463</v>
+        <v>7503480</v>
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
@@ -7634,11 +7964,11 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>7503309</v>
+        <v>7503463</v>
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
@@ -7647,11 +7977,11 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>7503072</v>
+        <v>7503309</v>
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
@@ -7660,11 +7990,11 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>7503267</v>
+        <v>7503072</v>
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
@@ -7673,11 +8003,11 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>7503244</v>
+        <v>7503267</v>
       </c>
       <c r="C121">
         <f t="shared" si="3"/>
@@ -7686,11 +8016,11 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>7503252</v>
+        <v>7503244</v>
       </c>
       <c r="C122">
         <f t="shared" si="3"/>
@@ -7699,11 +8029,11 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>7503430</v>
+        <v>7503252</v>
       </c>
       <c r="C123">
         <f t="shared" si="3"/>
@@ -7712,11 +8042,11 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>7503530</v>
+        <v>7503430</v>
       </c>
       <c r="C124">
         <f t="shared" si="3"/>
@@ -7725,11 +8055,11 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>7503521</v>
+        <v>7503530</v>
       </c>
       <c r="C125">
         <f t="shared" si="3"/>
@@ -7738,11 +8068,11 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>4235134</v>
+        <v>7503521</v>
       </c>
       <c r="C126">
         <f t="shared" si="3"/>
@@ -7790,11 +8120,11 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B130">
         <f t="shared" si="2"/>
-        <v>7503560</v>
+        <v>7503506</v>
       </c>
       <c r="C130">
         <f t="shared" si="3"/>
@@ -7803,11 +8133,11 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="4">_xlfn.NUMBERVALUE(MID(A131,FIND("is",$A131)+3,FIND(".",A131)-FIND("is",$A131)-3))</f>
-        <v>7503506</v>
+        <v>7503560</v>
       </c>
       <c r="C131">
         <f t="shared" si="3"/>
@@ -7829,11 +8159,11 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>7503061</v>
+        <v>4235134</v>
       </c>
       <c r="C133">
         <f t="shared" si="5"/>
@@ -7842,11 +8172,11 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>7503531</v>
+        <v>7503061</v>
       </c>
       <c r="C134">
         <f t="shared" si="5"/>
@@ -7855,11 +8185,11 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>556641</v>
+        <v>7503531</v>
       </c>
       <c r="C135">
         <f t="shared" si="5"/>
@@ -7868,11 +8198,11 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>7433609</v>
+        <v>556641</v>
       </c>
       <c r="C136">
         <f t="shared" si="5"/>
@@ -7881,7 +8211,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
@@ -7894,11 +8224,11 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>7502572</v>
+        <v>7433609</v>
       </c>
       <c r="C138">
         <f t="shared" si="5"/>
@@ -7907,7 +8237,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
@@ -7920,11 +8250,11 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>7391184</v>
+        <v>7502572</v>
       </c>
       <c r="C140">
         <f t="shared" si="5"/>
@@ -7933,11 +8263,11 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>7503551</v>
+        <v>7391184</v>
       </c>
       <c r="C141">
         <f t="shared" si="5"/>
@@ -7950,7 +8280,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>5338678</v>
+        <v>7503551</v>
       </c>
       <c r="C142">
         <f t="shared" si="5"/>
@@ -7959,11 +8289,11 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>7502600</v>
+        <v>5338678</v>
       </c>
       <c r="C143">
         <f t="shared" si="5"/>
@@ -7972,11 +8302,11 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>7490930</v>
+        <v>7502600</v>
       </c>
       <c r="C144">
         <f t="shared" si="5"/>
@@ -7985,11 +8315,11 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>7503410</v>
+        <v>7490930</v>
       </c>
       <c r="C145">
         <f t="shared" si="5"/>
@@ -7998,11 +8328,11 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>7503289</v>
+        <v>7503410</v>
       </c>
       <c r="C146">
         <f t="shared" si="5"/>
@@ -8011,11 +8341,11 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>7502877</v>
+        <v>7503289</v>
       </c>
       <c r="C147">
         <f t="shared" si="5"/>
@@ -8024,11 +8354,11 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>7502976</v>
+        <v>7502877</v>
       </c>
       <c r="C148">
         <f t="shared" si="5"/>
@@ -8037,11 +8367,11 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>7503418</v>
+        <v>7502976</v>
       </c>
       <c r="C149">
         <f t="shared" si="5"/>
@@ -8050,11 +8380,11 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>7503507</v>
+        <v>7503418</v>
       </c>
       <c r="C150">
         <f t="shared" si="5"/>
@@ -8063,11 +8393,11 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>7503486</v>
+        <v>7503507</v>
       </c>
       <c r="C151">
         <f t="shared" si="5"/>
@@ -8076,11 +8406,11 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>7503471</v>
+        <v>7503486</v>
       </c>
       <c r="C152">
         <f t="shared" si="5"/>
@@ -8089,11 +8419,11 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>3455300</v>
+        <v>7503471</v>
       </c>
       <c r="C153">
         <f t="shared" si="5"/>
@@ -8102,7 +8432,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
@@ -8115,7 +8445,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
@@ -8128,11 +8458,11 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>15382</v>
+        <v>3455300</v>
       </c>
       <c r="C156">
         <f t="shared" si="5"/>
@@ -8141,11 +8471,11 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>7369736</v>
+        <v>15382</v>
       </c>
       <c r="C157">
         <f t="shared" si="5"/>
@@ -8158,7 +8488,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>7251956</v>
+        <v>7369736</v>
       </c>
       <c r="C158">
         <f t="shared" si="5"/>
@@ -8167,11 +8497,11 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>7502360</v>
+        <v>7251956</v>
       </c>
       <c r="C159">
         <f t="shared" si="5"/>
@@ -8180,11 +8510,11 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>7502673</v>
+        <v>7502360</v>
       </c>
       <c r="C160">
         <f t="shared" si="5"/>
@@ -8193,11 +8523,11 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>4969123</v>
+        <v>7502673</v>
       </c>
       <c r="C161">
         <f t="shared" si="5"/>
@@ -8206,11 +8536,11 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>7502900</v>
+        <v>4969123</v>
       </c>
       <c r="C162">
         <f t="shared" si="5"/>
@@ -8219,11 +8549,11 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>7503444</v>
+        <v>7502900</v>
       </c>
       <c r="C163">
         <f t="shared" si="5"/>
@@ -8232,11 +8562,11 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>7492887</v>
+        <v>7503444</v>
       </c>
       <c r="C164">
         <f t="shared" si="5"/>
@@ -8245,11 +8575,11 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>2690</v>
+        <v>7492887</v>
       </c>
       <c r="C165">
         <f t="shared" si="5"/>
@@ -8258,11 +8588,11 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>6928833</v>
+        <v>2690</v>
       </c>
       <c r="C166">
         <f t="shared" si="5"/>
@@ -8271,11 +8601,11 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>7500468</v>
+        <v>6928833</v>
       </c>
       <c r="C167">
         <f t="shared" si="5"/>
@@ -8284,11 +8614,11 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>363308</v>
+        <v>7500468</v>
       </c>
       <c r="C168">
         <f t="shared" si="5"/>
@@ -8297,7 +8627,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
@@ -8310,7 +8640,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
@@ -8323,11 +8653,11 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>112690</v>
+        <v>363308</v>
       </c>
       <c r="C171">
         <f t="shared" si="5"/>
@@ -8336,7 +8666,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
@@ -8349,11 +8679,11 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>18704</v>
+        <v>112690</v>
       </c>
       <c r="C173">
         <f t="shared" si="5"/>
@@ -8362,11 +8692,11 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>18704</v>
       </c>
       <c r="C174">
         <f t="shared" si="5"/>
@@ -8375,7 +8705,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
@@ -8387,12 +8717,12 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>28.140407697000001</v>
-      </c>
-      <c r="B176" t="e">
+      <c r="A176" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>70</v>
       </c>
       <c r="C176">
         <f t="shared" si="5"/>
@@ -8401,7 +8731,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>28.140539781000001</v>
+        <v>30.683911547000001</v>
       </c>
       <c r="B177" t="e">
         <f t="shared" si="4"/>
@@ -8413,12 +8743,12 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>47</v>
-      </c>
-      <c r="B178">
+      <c r="A178">
+        <v>3.0205229999999998E-3</v>
+      </c>
+      <c r="B178" t="e">
         <f t="shared" si="4"/>
-        <v>7503562</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C178">
         <f t="shared" si="5"/>
@@ -8427,11 +8757,11 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
-        <v>7503557</v>
+        <v>7503562</v>
       </c>
       <c r="C179">
         <f t="shared" si="5"/>
@@ -8453,11 +8783,11 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B181">
         <f t="shared" si="4"/>
-        <v>7503531</v>
+        <v>7503557</v>
       </c>
       <c r="C181">
         <f t="shared" si="5"/>
@@ -8466,11 +8796,11 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
-        <v>7399689</v>
+        <v>7503531</v>
       </c>
       <c r="C182">
         <f t="shared" si="5"/>
@@ -8479,11 +8809,11 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
-        <v>7466951</v>
+        <v>7399689</v>
       </c>
       <c r="C183">
         <f t="shared" si="5"/>
@@ -8505,11 +8835,11 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
-        <v>7503265</v>
+        <v>7466951</v>
       </c>
       <c r="C185">
         <f t="shared" si="5"/>
@@ -8518,11 +8848,11 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
-        <v>7477976</v>
+        <v>7503265</v>
       </c>
       <c r="C186">
         <f t="shared" si="5"/>
@@ -8531,11 +8861,11 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
-        <v>7502767</v>
+        <v>7477976</v>
       </c>
       <c r="C187">
         <f t="shared" si="5"/>
@@ -8544,11 +8874,11 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
-        <v>7484127</v>
+        <v>7502767</v>
       </c>
       <c r="C188">
         <f t="shared" si="5"/>
@@ -8570,11 +8900,11 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>7496995</v>
+        <v>7484127</v>
       </c>
       <c r="C190">
         <f t="shared" si="5"/>
@@ -8583,11 +8913,11 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
-        <v>7453627</v>
+        <v>7496995</v>
       </c>
       <c r="C191">
         <f t="shared" si="5"/>
@@ -8596,11 +8926,11 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
-        <v>7391328</v>
+        <v>7453627</v>
       </c>
       <c r="C192">
         <f t="shared" si="5"/>
@@ -8622,11 +8952,11 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B194">
         <f t="shared" si="4"/>
-        <v>7503556</v>
+        <v>7391328</v>
       </c>
       <c r="C194">
         <f t="shared" si="5"/>
@@ -8635,11 +8965,11 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B195">
         <f t="shared" ref="B195:B258" si="6">_xlfn.NUMBERVALUE(MID(A195,FIND("is",$A195)+3,FIND(".",A195)-FIND("is",$A195)-3))</f>
-        <v>5503230</v>
+        <v>7503556</v>
       </c>
       <c r="C195">
         <f t="shared" si="5"/>
@@ -8648,11 +8978,11 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B196">
         <f t="shared" si="6"/>
-        <v>7503560</v>
+        <v>7503559</v>
       </c>
       <c r="C196">
         <f t="shared" ref="C196:C259" si="7">C195+1</f>
@@ -8661,11 +8991,11 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>7503559</v>
+        <v>7503560</v>
       </c>
       <c r="C197">
         <f t="shared" si="7"/>
@@ -8687,11 +9017,11 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
-        <v>7502754</v>
+        <v>5503230</v>
       </c>
       <c r="C199">
         <f t="shared" si="7"/>
@@ -8713,11 +9043,11 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
-        <v>7503172</v>
+        <v>7502754</v>
       </c>
       <c r="C201">
         <f t="shared" si="7"/>
@@ -8752,11 +9082,11 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>7503480</v>
+        <v>7503172</v>
       </c>
       <c r="C204">
         <f t="shared" si="7"/>
@@ -8765,11 +9095,11 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>7503463</v>
+        <v>7503480</v>
       </c>
       <c r="C205">
         <f t="shared" si="7"/>
@@ -8778,11 +9108,11 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>7503309</v>
+        <v>7503463</v>
       </c>
       <c r="C206">
         <f t="shared" si="7"/>
@@ -8791,11 +9121,11 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>7503072</v>
+        <v>7503309</v>
       </c>
       <c r="C207">
         <f t="shared" si="7"/>
@@ -8804,11 +9134,11 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>7503267</v>
+        <v>7503072</v>
       </c>
       <c r="C208">
         <f t="shared" si="7"/>
@@ -8817,11 +9147,11 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>7503244</v>
+        <v>7503267</v>
       </c>
       <c r="C209">
         <f t="shared" si="7"/>
@@ -8830,11 +9160,11 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>7503252</v>
+        <v>7503244</v>
       </c>
       <c r="C210">
         <f t="shared" si="7"/>
@@ -8856,11 +9186,11 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>7503530</v>
+        <v>7503252</v>
       </c>
       <c r="C212">
         <f t="shared" si="7"/>
@@ -8869,11 +9199,11 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>7503521</v>
+        <v>7503530</v>
       </c>
       <c r="C213">
         <f t="shared" si="7"/>
@@ -8882,11 +9212,11 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>7503515</v>
+        <v>7503521</v>
       </c>
       <c r="C214">
         <f t="shared" si="7"/>
@@ -8895,11 +9225,11 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>7503532</v>
+        <v>7503515</v>
       </c>
       <c r="C215">
         <f t="shared" si="7"/>
@@ -8908,11 +9238,11 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>7503498</v>
+        <v>7503532</v>
       </c>
       <c r="C216">
         <f t="shared" si="7"/>
@@ -8921,11 +9251,11 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>7503506</v>
+        <v>7503498</v>
       </c>
       <c r="C217">
         <f t="shared" si="7"/>
@@ -8934,11 +9264,11 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>7503560</v>
+        <v>7503506</v>
       </c>
       <c r="C218">
         <f t="shared" si="7"/>
@@ -8947,11 +9277,11 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>7503061</v>
+        <v>7503560</v>
       </c>
       <c r="C219">
         <f t="shared" si="7"/>
@@ -8960,11 +9290,11 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>7496337</v>
+        <v>7503061</v>
       </c>
       <c r="C220">
         <f t="shared" si="7"/>
@@ -8973,7 +9303,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
@@ -8986,11 +9316,11 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>7433609</v>
+        <v>7496337</v>
       </c>
       <c r="C222">
         <f t="shared" si="7"/>
@@ -8999,11 +9329,11 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>7502572</v>
+        <v>7433609</v>
       </c>
       <c r="C223">
         <f t="shared" si="7"/>
@@ -9012,11 +9342,11 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>7475997</v>
+        <v>7502572</v>
       </c>
       <c r="C224">
         <f t="shared" si="7"/>
@@ -9025,11 +9355,11 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>7391184</v>
+        <v>7475997</v>
       </c>
       <c r="C225">
         <f t="shared" si="7"/>
@@ -9038,11 +9368,11 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>5338678</v>
+        <v>7391184</v>
       </c>
       <c r="C226">
         <f t="shared" si="7"/>
@@ -9051,11 +9381,11 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>4557854</v>
+        <v>7503551</v>
       </c>
       <c r="C227">
         <f t="shared" si="7"/>
@@ -9064,11 +9394,11 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>7503551</v>
+        <v>4557854</v>
       </c>
       <c r="C228">
         <f t="shared" si="7"/>
@@ -9077,11 +9407,11 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>7502600</v>
+        <v>5338678</v>
       </c>
       <c r="C229">
         <f t="shared" si="7"/>
@@ -9090,11 +9420,11 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>7503410</v>
+        <v>7502600</v>
       </c>
       <c r="C230">
         <f t="shared" si="7"/>
@@ -9103,11 +9433,11 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>556641</v>
+        <v>7490930</v>
       </c>
       <c r="C231">
         <f t="shared" si="7"/>
@@ -9116,11 +9446,11 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>7503289</v>
+        <v>7503410</v>
       </c>
       <c r="C232">
         <f t="shared" si="7"/>
@@ -9129,11 +9459,11 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>7490930</v>
+        <v>556641</v>
       </c>
       <c r="C233">
         <f t="shared" si="7"/>
@@ -9142,11 +9472,11 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>7502877</v>
+        <v>7503289</v>
       </c>
       <c r="C234">
         <f t="shared" si="7"/>
@@ -9159,7 +9489,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>7502976</v>
+        <v>7503418</v>
       </c>
       <c r="C235">
         <f t="shared" si="7"/>
@@ -9168,11 +9498,11 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>7503418</v>
+        <v>7502877</v>
       </c>
       <c r="C236">
         <f t="shared" si="7"/>
@@ -9181,11 +9511,11 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>7503507</v>
+        <v>7502976</v>
       </c>
       <c r="C237">
         <f t="shared" si="7"/>
@@ -9194,11 +9524,11 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>7503486</v>
+        <v>7503507</v>
       </c>
       <c r="C238">
         <f t="shared" si="7"/>
@@ -9207,11 +9537,11 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>7503471</v>
+        <v>7503486</v>
       </c>
       <c r="C239">
         <f t="shared" si="7"/>
@@ -9220,11 +9550,11 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>4235134</v>
+        <v>7503471</v>
       </c>
       <c r="C240">
         <f t="shared" si="7"/>
@@ -9233,11 +9563,11 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>7369736</v>
+        <v>7501143</v>
       </c>
       <c r="C241">
         <f t="shared" si="7"/>
@@ -9246,11 +9576,11 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>7501143</v>
+        <v>7493009</v>
       </c>
       <c r="C242">
         <f t="shared" si="7"/>
@@ -9259,11 +9589,11 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>7493009</v>
+        <v>4235134</v>
       </c>
       <c r="C243">
         <f t="shared" si="7"/>
@@ -9272,11 +9602,11 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>7502360</v>
+        <v>7369736</v>
       </c>
       <c r="C244">
         <f t="shared" si="7"/>
@@ -9285,11 +9615,11 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>15382</v>
+        <v>7502360</v>
       </c>
       <c r="C245">
         <f t="shared" si="7"/>
@@ -9298,11 +9628,11 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>4969123</v>
+        <v>7251956</v>
       </c>
       <c r="C246">
         <f t="shared" si="7"/>
@@ -9311,11 +9641,11 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>7251956</v>
+        <v>4969123</v>
       </c>
       <c r="C247">
         <f t="shared" si="7"/>
@@ -9324,11 +9654,11 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>7502673</v>
+        <v>15382</v>
       </c>
       <c r="C248">
         <f t="shared" si="7"/>
@@ -9337,7 +9667,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
@@ -9350,11 +9680,11 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>7503444</v>
+        <v>7502673</v>
       </c>
       <c r="C250">
         <f t="shared" si="7"/>
@@ -9363,11 +9693,11 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>2690</v>
+        <v>7503444</v>
       </c>
       <c r="C251">
         <f t="shared" si="7"/>
@@ -9380,7 +9710,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>7492887</v>
+        <v>2690</v>
       </c>
       <c r="C252">
         <f t="shared" si="7"/>
@@ -9389,11 +9719,11 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>7502703</v>
+        <v>7492887</v>
       </c>
       <c r="C253">
         <f t="shared" si="7"/>
@@ -9402,7 +9732,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
@@ -9415,11 +9745,11 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>6928833</v>
+        <v>7502703</v>
       </c>
       <c r="C255">
         <f t="shared" si="7"/>
@@ -9428,11 +9758,11 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>7499210</v>
+        <v>6928833</v>
       </c>
       <c r="C256">
         <f t="shared" si="7"/>
@@ -9441,7 +9771,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
@@ -9454,11 +9784,11 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>3455300</v>
+        <v>7499210</v>
       </c>
       <c r="C258">
         <f t="shared" si="7"/>
@@ -9467,11 +9797,11 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B259">
         <f t="shared" ref="B259:B322" si="8">_xlfn.NUMBERVALUE(MID(A259,FIND("is",$A259)+3,FIND(".",A259)-FIND("is",$A259)-3))</f>
-        <v>363308</v>
+        <v>3455300</v>
       </c>
       <c r="C259">
         <f t="shared" si="7"/>
@@ -9480,11 +9810,11 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B260">
         <f t="shared" si="8"/>
-        <v>112690</v>
+        <v>363308</v>
       </c>
       <c r="C260">
         <f t="shared" ref="C260:C312" si="9">C259+1</f>
@@ -9493,11 +9823,11 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B261">
         <f t="shared" si="8"/>
-        <v>18704</v>
+        <v>112690</v>
       </c>
       <c r="C261">
         <f t="shared" si="9"/>
@@ -9506,11 +9836,11 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B262">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>18704</v>
       </c>
       <c r="C262">
         <f t="shared" si="9"/>
@@ -9519,7 +9849,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B263">
         <f t="shared" si="8"/>
@@ -9531,12 +9861,12 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>20.298617813</v>
-      </c>
-      <c r="B264" t="e">
+      <c r="A264" t="s">
+        <v>41</v>
+      </c>
+      <c r="B264">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>70</v>
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
@@ -9545,7 +9875,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>20.298804529000002</v>
+        <v>26.200123294000001</v>
       </c>
       <c r="B265" t="e">
         <f t="shared" si="8"/>
@@ -9557,12 +9887,12 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>47</v>
-      </c>
-      <c r="B266">
+      <c r="A266">
+        <v>3.669697E-3</v>
+      </c>
+      <c r="B266" t="e">
         <f t="shared" si="8"/>
-        <v>7503562</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
@@ -9571,11 +9901,11 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B267">
         <f t="shared" si="8"/>
-        <v>7503557</v>
+        <v>7503562</v>
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
@@ -9584,11 +9914,11 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B268">
         <f t="shared" si="8"/>
-        <v>7503463</v>
+        <v>7503557</v>
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
@@ -9597,11 +9927,11 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B269">
         <f t="shared" si="8"/>
-        <v>7503531</v>
+        <v>7503463</v>
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
@@ -9610,11 +9940,11 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B270">
         <f t="shared" si="8"/>
-        <v>7477976</v>
+        <v>7503531</v>
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
@@ -9649,11 +9979,11 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B273">
         <f t="shared" si="8"/>
-        <v>7399689</v>
+        <v>7477976</v>
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
@@ -9662,11 +9992,11 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B274">
         <f t="shared" si="8"/>
-        <v>7502572</v>
+        <v>7399689</v>
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
@@ -9675,11 +10005,11 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B275">
         <f t="shared" si="8"/>
-        <v>7484127</v>
+        <v>7502572</v>
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
@@ -9688,11 +10018,11 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B276">
         <f t="shared" si="8"/>
-        <v>7496995</v>
+        <v>7484127</v>
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
@@ -9714,11 +10044,11 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B278">
         <f t="shared" si="8"/>
-        <v>7503556</v>
+        <v>7496995</v>
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
@@ -9727,11 +10057,11 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B279">
         <f t="shared" si="8"/>
-        <v>7503560</v>
+        <v>7503556</v>
       </c>
       <c r="C279">
         <f t="shared" si="9"/>
@@ -9740,11 +10070,11 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B280">
         <f t="shared" si="8"/>
-        <v>7466951</v>
+        <v>7503559</v>
       </c>
       <c r="C280">
         <f t="shared" si="9"/>
@@ -9753,11 +10083,11 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B281">
         <f t="shared" si="8"/>
-        <v>7154176</v>
+        <v>7503560</v>
       </c>
       <c r="C281">
         <f t="shared" si="9"/>
@@ -9766,11 +10096,11 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B282">
         <f t="shared" si="8"/>
-        <v>7391328</v>
+        <v>7154176</v>
       </c>
       <c r="C282">
         <f t="shared" si="9"/>
@@ -9779,11 +10109,11 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B283">
         <f t="shared" si="8"/>
-        <v>7503559</v>
+        <v>7391328</v>
       </c>
       <c r="C283">
         <f t="shared" si="9"/>
@@ -9792,11 +10122,11 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B284">
         <f t="shared" si="8"/>
-        <v>5503230</v>
+        <v>7503560</v>
       </c>
       <c r="C284">
         <f t="shared" si="9"/>
@@ -9805,11 +10135,11 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B285">
         <f t="shared" si="8"/>
-        <v>7503560</v>
+        <v>7466951</v>
       </c>
       <c r="C285">
         <f t="shared" si="9"/>
@@ -9818,11 +10148,11 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B286">
         <f t="shared" si="8"/>
-        <v>7502754</v>
+        <v>5503230</v>
       </c>
       <c r="C286">
         <f t="shared" si="9"/>
@@ -9831,11 +10161,11 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B287">
         <f t="shared" si="8"/>
-        <v>7503172</v>
+        <v>7502754</v>
       </c>
       <c r="C287">
         <f t="shared" si="9"/>
@@ -9857,11 +10187,11 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B289">
         <f t="shared" si="8"/>
-        <v>7503480</v>
+        <v>7503172</v>
       </c>
       <c r="C289">
         <f t="shared" si="9"/>
@@ -9870,11 +10200,11 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B290">
         <f t="shared" si="8"/>
-        <v>7503463</v>
+        <v>7503480</v>
       </c>
       <c r="C290">
         <f t="shared" si="9"/>
@@ -9883,11 +10213,11 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B291">
         <f t="shared" si="8"/>
-        <v>7503309</v>
+        <v>7499367</v>
       </c>
       <c r="C291">
         <f t="shared" si="9"/>
@@ -9896,11 +10226,11 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B292">
         <f t="shared" si="8"/>
-        <v>7499367</v>
+        <v>7503463</v>
       </c>
       <c r="C292">
         <f t="shared" si="9"/>
@@ -9909,11 +10239,11 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B293">
         <f t="shared" si="8"/>
-        <v>7503267</v>
+        <v>7503309</v>
       </c>
       <c r="C293">
         <f t="shared" si="9"/>
@@ -9935,11 +10265,11 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B295">
         <f t="shared" si="8"/>
-        <v>7503430</v>
+        <v>7503267</v>
       </c>
       <c r="C295">
         <f t="shared" si="9"/>
@@ -9948,11 +10278,11 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B296">
         <f t="shared" si="8"/>
-        <v>7503244</v>
+        <v>7498472</v>
       </c>
       <c r="C296">
         <f t="shared" si="9"/>
@@ -9961,11 +10291,11 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B297">
         <f t="shared" si="8"/>
-        <v>3690498</v>
+        <v>7503244</v>
       </c>
       <c r="C297">
         <f t="shared" si="9"/>
@@ -9987,11 +10317,11 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B299">
         <f t="shared" si="8"/>
-        <v>7498472</v>
+        <v>7503430</v>
       </c>
       <c r="C299">
         <f t="shared" si="9"/>
@@ -10013,11 +10343,11 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B301">
         <f t="shared" si="8"/>
-        <v>7503521</v>
+        <v>3690498</v>
       </c>
       <c r="C301">
         <f t="shared" si="9"/>
@@ -10026,11 +10356,11 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B302">
         <f t="shared" si="8"/>
-        <v>7503515</v>
+        <v>7503521</v>
       </c>
       <c r="C302">
         <f t="shared" si="9"/>
@@ -10039,11 +10369,11 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B303">
         <f t="shared" si="8"/>
-        <v>7503532</v>
+        <v>7503515</v>
       </c>
       <c r="C303">
         <f t="shared" si="9"/>
@@ -10052,11 +10382,11 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B304">
         <f t="shared" si="8"/>
-        <v>7503498</v>
+        <v>7503532</v>
       </c>
       <c r="C304">
         <f t="shared" si="9"/>
@@ -10065,11 +10395,11 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B305">
         <f t="shared" si="8"/>
-        <v>7503506</v>
+        <v>7503498</v>
       </c>
       <c r="C305">
         <f t="shared" si="9"/>
@@ -10078,11 +10408,11 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B306">
         <f t="shared" si="8"/>
-        <v>7503560</v>
+        <v>7503506</v>
       </c>
       <c r="C306">
         <f t="shared" si="9"/>
@@ -10091,11 +10421,11 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B307">
         <f t="shared" si="8"/>
-        <v>7503061</v>
+        <v>7503560</v>
       </c>
       <c r="C307">
         <f t="shared" si="9"/>
@@ -10104,11 +10434,11 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="B308">
         <f t="shared" si="8"/>
-        <v>7496337</v>
+        <v>7503061</v>
       </c>
       <c r="C308">
         <f t="shared" si="9"/>
@@ -10117,7 +10447,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B309">
         <f t="shared" si="8"/>
@@ -10130,11 +10460,11 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B310">
         <f t="shared" si="8"/>
-        <v>7502572</v>
+        <v>7496337</v>
       </c>
       <c r="C310">
         <f t="shared" si="9"/>
@@ -10143,7 +10473,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B311">
         <f t="shared" si="8"/>
@@ -10156,11 +10486,11 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B312">
         <f t="shared" si="8"/>
-        <v>7433609</v>
+        <v>7503551</v>
       </c>
       <c r="C312">
         <f t="shared" si="9"/>
@@ -10169,25 +10499,25 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B313">
         <f t="shared" si="8"/>
-        <v>7391184</v>
+        <v>7502572</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B314">
         <f t="shared" si="8"/>
-        <v>7503551</v>
+        <v>7433609</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B315">
         <f t="shared" si="8"/>
@@ -10196,7 +10526,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B316">
         <f t="shared" si="8"/>
@@ -10205,34 +10535,34 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B317">
         <f t="shared" si="8"/>
-        <v>7503289</v>
+        <v>7391184</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B318">
         <f t="shared" si="8"/>
-        <v>7502877</v>
+        <v>7503289</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B319">
         <f t="shared" si="8"/>
-        <v>7502976</v>
+        <v>7502877</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B320">
         <f t="shared" si="8"/>
@@ -10241,34 +10571,34 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B321">
         <f t="shared" si="8"/>
-        <v>7503507</v>
+        <v>7502976</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B322">
         <f t="shared" si="8"/>
-        <v>5338678</v>
+        <v>7503507</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B323">
-        <f t="shared" ref="B323:B351" si="10">_xlfn.NUMBERVALUE(MID(A323,FIND("is",$A323)+3,FIND(".",A323)-FIND("is",$A323)-3))</f>
-        <v>7503486</v>
+        <f t="shared" ref="B323:B386" si="10">_xlfn.NUMBERVALUE(MID(A323,FIND("is",$A323)+3,FIND(".",A323)-FIND("is",$A323)-3))</f>
+        <v>5338678</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B324">
         <f t="shared" si="10"/>
@@ -10277,34 +10607,34 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B325">
         <f t="shared" si="10"/>
-        <v>7490930</v>
+        <v>7503486</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B326">
         <f t="shared" si="10"/>
-        <v>7501143</v>
+        <v>7490930</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B327">
         <f t="shared" si="10"/>
-        <v>7369736</v>
+        <v>7501143</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B328">
         <f t="shared" si="10"/>
@@ -10313,61 +10643,61 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B329">
         <f t="shared" si="10"/>
-        <v>7493009</v>
+        <v>7502673</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B330">
         <f t="shared" si="10"/>
-        <v>4557854</v>
+        <v>7502900</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B331">
         <f t="shared" si="10"/>
-        <v>7503444</v>
+        <v>7369736</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B332">
         <f t="shared" si="10"/>
-        <v>7502900</v>
+        <v>7493009</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B333">
         <f t="shared" si="10"/>
-        <v>7502673</v>
+        <v>7503444</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B334">
         <f t="shared" si="10"/>
-        <v>7502703</v>
+        <v>4557854</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B335">
         <f t="shared" si="10"/>
@@ -10376,11 +10706,11 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B336">
         <f t="shared" si="10"/>
-        <v>4969123</v>
+        <v>7500468</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -10389,12 +10719,12 @@
       </c>
       <c r="B337">
         <f t="shared" si="10"/>
-        <v>7500468</v>
+        <v>7502703</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B338">
         <f t="shared" si="10"/>
@@ -10403,115 +10733,115 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B339">
         <f t="shared" si="10"/>
-        <v>556641</v>
+        <v>4969123</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B340">
         <f t="shared" si="10"/>
-        <v>7499210</v>
+        <v>556641</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B341">
         <f t="shared" si="10"/>
-        <v>6928833</v>
+        <v>7499210</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B342">
         <f t="shared" si="10"/>
-        <v>15382</v>
+        <v>6928833</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B343">
         <f t="shared" si="10"/>
-        <v>2690</v>
+        <v>15382</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B344">
         <f t="shared" si="10"/>
-        <v>1426</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B345">
         <f t="shared" si="10"/>
-        <v>4235134</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B346">
         <f t="shared" si="10"/>
-        <v>3455300</v>
+        <v>4235134</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B347">
         <f t="shared" si="10"/>
-        <v>363308</v>
+        <v>3455300</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B348">
         <f t="shared" si="10"/>
-        <v>112690</v>
+        <v>363308</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B349">
         <f t="shared" si="10"/>
-        <v>18704</v>
+        <v>112690</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B350">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>18704</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B351">
         <f t="shared" si="10"/>
@@ -10519,13 +10849,813 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>15.191236478</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>41</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>15.191375235000001</v>
+        <v>17.269520518</v>
+      </c>
+      <c r="B353" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1.6243825E-2</v>
+      </c>
+      <c r="B354" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>47</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="10"/>
+        <v>7503562</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>45</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="10"/>
+        <v>7503557</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>54</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="10"/>
+        <v>7502767</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>53</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="10"/>
+        <v>7477976</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>52</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="10"/>
+        <v>7503265</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>57</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="10"/>
+        <v>7496995</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>56</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="10"/>
+        <v>7484127</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>44</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="10"/>
+        <v>7503463</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>46</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="10"/>
+        <v>7503531</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>55</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="10"/>
+        <v>7502572</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>58</v>
+      </c>
+      <c r="B365">
+        <f t="shared" si="10"/>
+        <v>7453627</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>62</v>
+      </c>
+      <c r="B366">
+        <f t="shared" si="10"/>
+        <v>7503560</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>64</v>
+      </c>
+      <c r="B367">
+        <f t="shared" si="10"/>
+        <v>7503560</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>63</v>
+      </c>
+      <c r="B368">
+        <f t="shared" si="10"/>
+        <v>7503559</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>61</v>
+      </c>
+      <c r="B369">
+        <f t="shared" si="10"/>
+        <v>7503556</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>59</v>
+      </c>
+      <c r="B370">
+        <f t="shared" si="10"/>
+        <v>7391328</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>68</v>
+      </c>
+      <c r="B371">
+        <f t="shared" si="10"/>
+        <v>7502754</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>69</v>
+      </c>
+      <c r="B372">
+        <f t="shared" si="10"/>
+        <v>7503172</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>71</v>
+      </c>
+      <c r="B373">
+        <f t="shared" si="10"/>
+        <v>7503480</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>72</v>
+      </c>
+      <c r="B374">
+        <f t="shared" si="10"/>
+        <v>7503463</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>73</v>
+      </c>
+      <c r="B375">
+        <f t="shared" si="10"/>
+        <v>7503309</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>51</v>
+      </c>
+      <c r="B376">
+        <f t="shared" si="10"/>
+        <v>7399689</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>74</v>
+      </c>
+      <c r="B377">
+        <f t="shared" si="10"/>
+        <v>7503072</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>70</v>
+      </c>
+      <c r="B378">
+        <f t="shared" si="10"/>
+        <v>7503427</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>60</v>
+      </c>
+      <c r="B379">
+        <f t="shared" si="10"/>
+        <v>5503230</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>76</v>
+      </c>
+      <c r="B380">
+        <f t="shared" si="10"/>
+        <v>7503244</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>78</v>
+      </c>
+      <c r="B381">
+        <f t="shared" si="10"/>
+        <v>7503430</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>79</v>
+      </c>
+      <c r="B382">
+        <f t="shared" si="10"/>
+        <v>7503530</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>80</v>
+      </c>
+      <c r="B383">
+        <f t="shared" si="10"/>
+        <v>7503521</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>81</v>
+      </c>
+      <c r="B384">
+        <f t="shared" si="10"/>
+        <v>7503515</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>67</v>
+      </c>
+      <c r="B385">
+        <f t="shared" si="10"/>
+        <v>7499367</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>77</v>
+      </c>
+      <c r="B386">
+        <f t="shared" si="10"/>
+        <v>7503252</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>82</v>
+      </c>
+      <c r="B387">
+        <f t="shared" ref="B387:B441" si="11">_xlfn.NUMBERVALUE(MID(A387,FIND("is",$A387)+3,FIND(".",A387)-FIND("is",$A387)-3))</f>
+        <v>7503532</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>75</v>
+      </c>
+      <c r="B388">
+        <f t="shared" si="11"/>
+        <v>7503267</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>83</v>
+      </c>
+      <c r="B389">
+        <f t="shared" si="11"/>
+        <v>7503498</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>84</v>
+      </c>
+      <c r="B390">
+        <f t="shared" si="11"/>
+        <v>7503506</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>50</v>
+      </c>
+      <c r="B391">
+        <f t="shared" si="11"/>
+        <v>7466951</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>85</v>
+      </c>
+      <c r="B392">
+        <f t="shared" si="11"/>
+        <v>7503560</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>0</v>
+      </c>
+      <c r="B393">
+        <f t="shared" si="11"/>
+        <v>7503061</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394">
+        <f t="shared" si="11"/>
+        <v>7433609</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>49</v>
+      </c>
+      <c r="B395">
+        <f t="shared" si="11"/>
+        <v>7154176</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>65</v>
+      </c>
+      <c r="B396">
+        <f t="shared" si="11"/>
+        <v>7498472</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397">
+        <f t="shared" si="11"/>
+        <v>7475997</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>86</v>
+      </c>
+      <c r="B398">
+        <f t="shared" si="11"/>
+        <v>7496337</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1</v>
+      </c>
+      <c r="B399">
+        <f t="shared" si="11"/>
+        <v>7503531</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400">
+        <f t="shared" si="11"/>
+        <v>7503551</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401">
+        <f t="shared" si="11"/>
+        <v>7502572</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>14</v>
+      </c>
+      <c r="B402">
+        <f t="shared" si="11"/>
+        <v>7503289</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>13</v>
+      </c>
+      <c r="B403">
+        <f t="shared" si="11"/>
+        <v>7503410</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404">
+        <f t="shared" si="11"/>
+        <v>7503507</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>12</v>
+      </c>
+      <c r="B405">
+        <f t="shared" si="11"/>
+        <v>7502600</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>17</v>
+      </c>
+      <c r="B406">
+        <f t="shared" si="11"/>
+        <v>7503418</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>19</v>
+      </c>
+      <c r="B407">
+        <f t="shared" si="11"/>
+        <v>7503486</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>20</v>
+      </c>
+      <c r="B408">
+        <f t="shared" si="11"/>
+        <v>7503471</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>16</v>
+      </c>
+      <c r="B409">
+        <f t="shared" si="11"/>
+        <v>7502976</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>7</v>
+      </c>
+      <c r="B410">
+        <f t="shared" si="11"/>
+        <v>7391184</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>31</v>
+      </c>
+      <c r="B411">
+        <f t="shared" si="11"/>
+        <v>7503444</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>15</v>
+      </c>
+      <c r="B412">
+        <f t="shared" si="11"/>
+        <v>7502877</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>22</v>
+      </c>
+      <c r="B413">
+        <f t="shared" si="11"/>
+        <v>7501143</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>8</v>
+      </c>
+      <c r="B414">
+        <f t="shared" si="11"/>
+        <v>5338678</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>28</v>
+      </c>
+      <c r="B415">
+        <f t="shared" si="11"/>
+        <v>7502360</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>30</v>
+      </c>
+      <c r="B416">
+        <f t="shared" si="11"/>
+        <v>7502900</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>48</v>
+      </c>
+      <c r="B417">
+        <f t="shared" si="11"/>
+        <v>3690498</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>21</v>
+      </c>
+      <c r="B418">
+        <f t="shared" si="11"/>
+        <v>7493009</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>37</v>
+      </c>
+      <c r="B419">
+        <f t="shared" si="11"/>
+        <v>7502703</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>25</v>
+      </c>
+      <c r="B420">
+        <f t="shared" si="11"/>
+        <v>7369736</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>29</v>
+      </c>
+      <c r="B421">
+        <f t="shared" si="11"/>
+        <v>7502673</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>10</v>
+      </c>
+      <c r="B422">
+        <f t="shared" si="11"/>
+        <v>7490930</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>24</v>
+      </c>
+      <c r="B423">
+        <f t="shared" si="11"/>
+        <v>7251956</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>26</v>
+      </c>
+      <c r="B424">
+        <f t="shared" si="11"/>
+        <v>4969123</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>32</v>
+      </c>
+      <c r="B425">
+        <f t="shared" si="11"/>
+        <v>7492887</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>36</v>
+      </c>
+      <c r="B426">
+        <f t="shared" si="11"/>
+        <v>7500468</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>40</v>
+      </c>
+      <c r="B427">
+        <f t="shared" si="11"/>
+        <v>7499210</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>3</v>
+      </c>
+      <c r="B428">
+        <f t="shared" si="11"/>
+        <v>4557854</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>34</v>
+      </c>
+      <c r="B429">
+        <f t="shared" si="11"/>
+        <v>6928833</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>2</v>
+      </c>
+      <c r="B430">
+        <f t="shared" si="11"/>
+        <v>556641</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431">
+        <f t="shared" si="11"/>
+        <v>15382</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>33</v>
+      </c>
+      <c r="B432">
+        <f t="shared" si="11"/>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>38</v>
+      </c>
+      <c r="B433">
+        <f t="shared" si="11"/>
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>66</v>
+      </c>
+      <c r="B434">
+        <f t="shared" si="11"/>
+        <v>4235134</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>11</v>
+      </c>
+      <c r="B435">
+        <f t="shared" si="11"/>
+        <v>3455300</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>27</v>
+      </c>
+      <c r="B436">
+        <f t="shared" si="11"/>
+        <v>363308</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437">
+        <f t="shared" si="11"/>
+        <v>112690</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>39</v>
+      </c>
+      <c r="B438">
+        <f t="shared" si="11"/>
+        <v>18704</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>41</v>
+      </c>
+      <c r="B439">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>41</v>
+      </c>
+      <c r="B440">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>18.035961767</v>
+      </c>
+      <c r="B441" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/parallel-multi-intersect/bushy-base.xlsx
+++ b/benchmarks/parallel-multi-intersect/bushy-base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="14715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4132,7 +4132,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>intersect number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4209,6 +4209,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -4254,7 +4255,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>key error</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5849,7 +5850,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5860,7 +5861,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5871,7 +5872,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:ext cx="9304694" cy="6084337"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>

--- a/benchmarks/parallel-multi-intersect/bushy-base.xlsx
+++ b/benchmarks/parallel-multi-intersect/bushy-base.xlsx
@@ -4210,7 +4210,7 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="5"/>
-        <c:tickMarkSkip val="1"/>
+        <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -4324,6 +4324,39 @@
         <c:crossAx val="567292096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>

--- a/benchmarks/parallel-multi-intersect/bushy-base.xlsx
+++ b/benchmarks/parallel-multi-intersect/bushy-base.xlsx
@@ -1480,7 +1480,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1 thread</c:v>
+            <c:v>1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -2051,7 +2051,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2 threads</c:v>
+            <c:v>2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -2622,12 +2622,12 @@
           <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4 threads</c:v>
+            <c:v>4 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2638,11 +2638,11 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="70AD47"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3193,12 +3193,14 @@
           <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>8 threads</c:v>
+            <c:v>8 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3209,11 +3211,15 @@
             <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="4472C4">
+                    <a:lumMod val="75000"/>
+                  </a:srgbClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3764,7 +3770,7 @@
           <c:idx val="2"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>16 threads</c:v>
+            <c:v>16 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -4132,7 +4138,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>intersect number</a:t>
+                  <a:t>Intersect Number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4255,7 +4261,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>key error</a:t>
+                  <a:t>Key Error</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5883,7 +5889,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5894,7 +5900,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="147" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5905,7 +5911,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5932,7 +5938,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304694" cy="6084337"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6472,7 +6478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C441"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
